--- a/Project4817_C. Aria(2019).xlsx
+++ b/Project4817_C. Aria(2019).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D80AD0-7F3B-4747-B979-DB29C9B5CCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09698782-0C6E-465B-9297-09A9007E6C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E131BE07-645B-C546-89AC-BD671E402E3A}"/>
+    <workbookView xWindow="255" yWindow="1560" windowWidth="15945" windowHeight="18375" xr2:uid="{E131BE07-645B-C546-89AC-BD671E402E3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4817" sheetId="1" r:id="rId1"/>
@@ -940,55 +940,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>787401</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>73024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC89DDED-DE66-9DBD-162A-5695F16B41AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8026400" y="279399"/>
-          <a:ext cx="10845800" cy="6778625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1314,13 +1265,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>275</v>
       </c>
@@ -1342,7 +1293,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1353,7 +1304,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1315,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1326,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1386,7 +1337,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +1348,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +1359,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1419,7 +1370,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1430,7 +1381,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1441,7 +1392,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1452,7 +1403,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1463,7 +1414,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1425,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1485,7 +1436,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1496,7 +1447,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1458,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1469,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1529,7 +1480,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1540,7 +1491,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1551,7 +1502,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1562,7 +1513,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1573,7 +1524,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1584,7 +1535,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1595,7 +1546,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1606,7 +1557,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1617,7 +1568,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1628,7 +1579,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1639,7 +1590,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1650,7 +1601,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1661,7 +1612,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1672,7 +1623,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1683,7 +1634,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1694,7 +1645,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1705,7 +1656,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1716,7 +1667,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1727,7 +1678,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1738,7 +1689,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1749,7 +1700,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1760,7 +1711,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1771,7 +1722,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1782,7 +1733,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1793,7 +1744,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1804,7 +1755,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1815,7 +1766,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1826,7 +1777,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1837,7 +1788,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1848,7 +1799,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1859,7 +1810,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1870,7 +1821,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1881,7 +1832,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1892,7 +1843,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1903,7 +1854,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1914,7 +1865,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1925,7 +1876,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1936,7 +1887,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1945,7 +1896,7 @@
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1956,7 +1907,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1967,7 +1918,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1978,7 +1929,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1989,7 +1940,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2000,7 +1951,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2011,7 +1962,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2022,7 +1973,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2033,7 +1984,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2044,7 +1995,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2055,7 +2006,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2066,7 +2017,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2077,7 +2028,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2088,7 +2039,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2099,7 +2050,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2110,7 +2061,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2121,7 +2072,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2132,7 +2083,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2143,7 +2094,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2154,7 +2105,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2165,7 +2116,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2176,7 +2127,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2187,7 +2138,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2198,7 +2149,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2209,7 +2160,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2220,7 +2171,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2231,7 +2182,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2242,7 +2193,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2253,7 +2204,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2264,7 +2215,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2275,7 +2226,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2286,7 +2237,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2297,7 +2248,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2308,7 +2259,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2319,7 +2270,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2330,7 +2281,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2341,7 +2292,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2352,7 +2303,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2363,7 +2314,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2374,7 +2325,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2385,7 +2336,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2396,7 +2347,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2407,7 +2358,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2418,7 +2369,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2429,7 +2380,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2440,7 +2391,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2451,7 +2402,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2462,7 +2413,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2473,7 +2424,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2484,7 +2435,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2495,7 +2446,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2506,7 +2457,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2517,7 +2468,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2528,7 +2479,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2539,7 +2490,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2550,7 +2501,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2558,7 +2509,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2569,7 +2520,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2580,7 +2531,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2591,7 +2542,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2602,7 +2553,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2613,7 +2564,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2624,7 +2575,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2635,7 +2586,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2646,7 +2597,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2657,7 +2608,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2668,7 +2619,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2679,7 +2630,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2690,7 +2641,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2701,7 +2652,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2712,7 +2663,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2723,7 +2674,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2734,7 +2685,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2745,7 +2696,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2756,7 +2707,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2767,7 +2718,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2778,7 +2729,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2789,7 +2740,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2800,7 +2751,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2811,7 +2762,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2822,7 +2773,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2833,7 +2784,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2844,7 +2795,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2855,7 +2806,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2866,7 +2817,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2877,7 +2828,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2888,7 +2839,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2899,7 +2850,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2910,7 +2861,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2921,7 +2872,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2932,7 +2883,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2943,7 +2894,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2954,7 +2905,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2965,7 +2916,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -2976,7 +2927,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -2987,7 +2938,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -2998,7 +2949,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3009,7 +2960,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3020,7 +2971,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -3031,7 +2982,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3042,7 +2993,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3053,7 +3004,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3064,7 +3015,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3075,7 +3026,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3086,7 +3037,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3097,7 +3048,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3108,7 +3059,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3119,7 +3070,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3130,7 +3081,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3141,7 +3092,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3152,7 +3103,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3163,7 +3114,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3174,7 +3125,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3185,7 +3136,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3196,7 +3147,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3207,7 +3158,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3218,7 +3169,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3229,7 +3180,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3240,7 +3191,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3251,7 +3202,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3262,7 +3213,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3273,7 +3224,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3284,7 +3235,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3295,7 +3246,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3306,7 +3257,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3317,7 +3268,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3328,7 +3279,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3339,7 +3290,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3350,7 +3301,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3361,7 +3312,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3372,7 +3323,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3383,7 +3334,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3394,7 +3345,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3405,7 +3356,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3416,7 +3367,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3427,7 +3378,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3438,7 +3389,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3449,7 +3400,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3460,7 +3411,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3471,7 +3422,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3482,7 +3433,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3493,7 +3444,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3504,7 +3455,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3515,7 +3466,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3526,7 +3477,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3537,7 +3488,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3548,7 +3499,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3559,7 +3510,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3570,7 +3521,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3581,7 +3532,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3592,7 +3543,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3603,7 +3554,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -3614,7 +3565,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -3625,7 +3576,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -3636,7 +3587,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -3647,7 +3598,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -3658,7 +3609,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -3669,7 +3620,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -3680,7 +3631,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -3691,7 +3642,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -3702,7 +3653,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -3713,7 +3664,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -3724,7 +3675,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -3735,7 +3686,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -3746,7 +3697,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -3757,7 +3708,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -3768,7 +3719,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -3779,7 +3730,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -3790,7 +3741,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -3801,7 +3752,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -3812,7 +3763,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -3823,7 +3774,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -3834,7 +3785,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -3845,7 +3796,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -3856,7 +3807,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -3867,7 +3818,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -3878,7 +3829,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -3889,7 +3840,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -3900,7 +3851,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -3911,7 +3862,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -3919,7 +3870,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -3930,7 +3881,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -3941,7 +3892,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -3952,7 +3903,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -3963,7 +3914,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -3974,7 +3925,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -3985,7 +3936,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -3996,7 +3947,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -4007,7 +3958,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4018,7 +3969,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -4029,7 +3980,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4040,7 +3991,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4051,7 +4002,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4062,7 +4013,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4073,7 +4024,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4084,7 +4035,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4095,7 +4046,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4106,7 +4057,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4117,7 +4068,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4128,7 +4079,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4139,7 +4090,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4150,7 +4101,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4161,7 +4112,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4172,7 +4123,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4183,7 +4134,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4194,7 +4145,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -4205,7 +4156,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -4216,7 +4167,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -4227,7 +4178,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -4238,7 +4189,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -4249,7 +4200,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -4263,6 +4214,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>